--- a/public/SampleFile/Ex.xlsx
+++ b/public/SampleFile/Ex.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7843EC4E-244D-4FF0-AA3C-D33D4F936E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -52,29 +61,12 @@
     <t>major</t>
   </si>
   <si>
-    <t>Trần Thế Nhân</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
     <t>2004-01-13</t>
   </si>
   <si>
-    <t>089204006666</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>nhan.tranthek22@hcmut.edu.vn</t>
-    </r>
-  </si>
-  <si>
     <t>0787919942</t>
   </si>
   <si>
@@ -94,36 +86,68 @@
   </si>
   <si>
     <t>Khoa học máy tính</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2004-03-04</t>
+  </si>
+  <si>
+    <t>nhantranibm5100@gmail.com</t>
+  </si>
+  <si>
+    <t>0787919999</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>CK01CC03</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Cơ Điện tử</t>
+  </si>
+  <si>
+    <t>Bùi Hoàng Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Anh</t>
+  </si>
+  <si>
+    <t>089204006643</t>
+  </si>
+  <si>
+    <t>089204006644</t>
+  </si>
+  <si>
+    <t>nhan.tranthek22cs@hcmut.edu.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="11"/>
-      <color indexed="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,63 +188,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -422,7 +492,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -441,7 +511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -471,7 +541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -497,7 +567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -523,7 +593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -549,7 +619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -575,7 +645,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -601,7 +671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -627,7 +697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -653,7 +723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,7 +749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,9 +762,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -711,7 +787,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -730,7 +806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,9 +1053,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -993,7 +1075,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1012,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,245 +1345,283 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1719" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="4" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s" s="5">
+    </row>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s" s="5">
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+    <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+    <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="" tooltip="" display="nhan.tranthek22@hcmut.edu.vn"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{75976AE0-63A4-47BB-9A1D-0EECA4EB4AF6}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{448178A9-C59F-4A72-B37D-7943774475B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/SampleFile/Ex.xlsx
+++ b/public/SampleFile/Ex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7843EC4E-244D-4FF0-AA3C-D33D4F936E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED40310-A524-4B2E-9FA5-B812302AE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -125,6 +125,36 @@
   </si>
   <si>
     <t>nhan.tranthek22cs@hcmut.edu.vn</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Trương Mỹ Lan</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>2003-07-07</t>
+  </si>
+  <si>
+    <t>077204006688</t>
+  </si>
+  <si>
+    <t>0787719999</t>
+  </si>
+  <si>
+    <t>TP.Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>MT24KT01</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>Kỹ thuật máy tính</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1397,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1379,7 +1409,7 @@
     <col min="5" max="5" width="20.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.21875" style="4" customWidth="1"/>
     <col min="10" max="12" width="8.88671875" style="4" customWidth="1"/>
     <col min="13" max="13" width="16.21875" style="4" customWidth="1"/>
@@ -1511,19 +1541,45 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1619,6 +1675,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{75976AE0-63A4-47BB-9A1D-0EECA4EB4AF6}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{448178A9-C59F-4A72-B37D-7943774475B2}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{64EEE017-8CCE-47B7-841D-12081FC1C552}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
